--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Edn2-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Edn2-Ednra.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.619567</v>
+        <v>8.949653</v>
       </c>
       <c r="N2">
-        <v>3.239134</v>
+        <v>17.899306</v>
       </c>
       <c r="O2">
-        <v>0.05049533395284947</v>
+        <v>0.1668927877080592</v>
       </c>
       <c r="P2">
-        <v>0.04454651624622216</v>
+        <v>0.1610232428880788</v>
       </c>
       <c r="Q2">
-        <v>0.2805646095336666</v>
+        <v>1.550387171019667</v>
       </c>
       <c r="R2">
-        <v>1.683387657202</v>
+        <v>9.302323026118</v>
       </c>
       <c r="S2">
-        <v>0.05049533395284947</v>
+        <v>0.1668927877080592</v>
       </c>
       <c r="T2">
-        <v>0.04454651624622216</v>
+        <v>0.1610232428880788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>10.054378</v>
       </c>
       <c r="O3">
-        <v>0.104492780024575</v>
+        <v>0.06249788578732534</v>
       </c>
       <c r="P3">
-        <v>0.1382738450841054</v>
+        <v>0.09044979457765322</v>
       </c>
       <c r="Q3">
         <v>0.5805878233037778</v>
@@ -641,10 +641,10 @@
         <v>5.225290409734</v>
       </c>
       <c r="S3">
-        <v>0.104492780024575</v>
+        <v>0.06249788578732534</v>
       </c>
       <c r="T3">
-        <v>0.1382738450841054</v>
+        <v>0.09044979457765322</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09988799999999999</v>
+        <v>0.050758</v>
       </c>
       <c r="N4">
-        <v>0.299664</v>
+        <v>0.152274</v>
       </c>
       <c r="O4">
-        <v>0.00311433729995871</v>
+        <v>0.0009465332475444208</v>
       </c>
       <c r="P4">
-        <v>0.004121159311225753</v>
+        <v>0.001369866143834812</v>
       </c>
       <c r="Q4">
-        <v>0.017304031088</v>
+        <v>0.008793028291333334</v>
       </c>
       <c r="R4">
-        <v>0.155736279792</v>
+        <v>0.079137254622</v>
       </c>
       <c r="S4">
-        <v>0.00311433729995871</v>
+        <v>0.0009465332475444208</v>
       </c>
       <c r="T4">
-        <v>0.004121159311225753</v>
+        <v>0.001369866143834812</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8877045</v>
+        <v>40.766071</v>
       </c>
       <c r="N5">
-        <v>43.775409</v>
+        <v>81.53214199999999</v>
       </c>
       <c r="O5">
-        <v>0.6824212571562561</v>
+        <v>0.7602041367519689</v>
       </c>
       <c r="P5">
-        <v>0.6020257168130494</v>
+        <v>0.7334680967212543</v>
       </c>
       <c r="Q5">
-        <v>3.791701897254501</v>
+        <v>7.062083132304333</v>
       </c>
       <c r="R5">
-        <v>22.750211383527</v>
+        <v>42.372498793826</v>
       </c>
       <c r="S5">
-        <v>0.6824212571562561</v>
+        <v>0.7602041367519689</v>
       </c>
       <c r="T5">
-        <v>0.6020257168130494</v>
+        <v>0.7334680967212543</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.079836</v>
+        <v>0.3317233333333334</v>
       </c>
       <c r="N6">
-        <v>15.239508</v>
+        <v>0.9951700000000001</v>
       </c>
       <c r="O6">
-        <v>0.158380613611976</v>
+        <v>0.006185964064507279</v>
       </c>
       <c r="P6">
-        <v>0.2095828671201724</v>
+        <v>0.008952609705925435</v>
       </c>
       <c r="Q6">
-        <v>0.8800020029026668</v>
+        <v>0.05746587050111112</v>
       </c>
       <c r="R6">
-        <v>7.920018026124001</v>
+        <v>0.5171928345100001</v>
       </c>
       <c r="S6">
-        <v>0.158380613611976</v>
+        <v>0.006185964064507279</v>
       </c>
       <c r="T6">
-        <v>0.2095828671201724</v>
+        <v>0.008952609705925435</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.03514233333333333</v>
+        <v>0.1754986666666667</v>
       </c>
       <c r="N7">
-        <v>0.105427</v>
+        <v>0.526496</v>
       </c>
       <c r="O7">
-        <v>0.001095677954384734</v>
+        <v>0.003272692440594897</v>
       </c>
       <c r="P7">
-        <v>0.00144989542522491</v>
+        <v>0.004736389963253432</v>
       </c>
       <c r="Q7">
-        <v>0.006087858686777778</v>
+        <v>0.03040239452088889</v>
       </c>
       <c r="R7">
-        <v>0.054790728181</v>
+        <v>0.273621550688</v>
       </c>
       <c r="S7">
-        <v>0.001095677954384734</v>
+        <v>0.003272692440594897</v>
       </c>
       <c r="T7">
-        <v>0.00144989542522491</v>
+        <v>0.004736389963253432</v>
       </c>
     </row>
   </sheetData>
